--- a/biology/Botanique/Orthosiphon/Orthosiphon.xlsx
+++ b/biology/Botanique/Orthosiphon/Orthosiphon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orthosiphon est un genre de plantes à fleurs de la famille des Lamiaceae.
 Orthosiphon aristatus  (O. stamineus) est parfois appelé thé de Java du fait de son origine indonésienne.
@@ -512,7 +524,9 @@
           <t>Propriétés pharmacologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La feuille et la sommité florale ont des propriétés diurétiques et cholagogues (facilite l'élimination de la bile). La plante n'a pas d'utilité dans les régimes amincissants, la masse perdue ne correspond pas à de la graisse mais à de l'eau (aucun effet à long terme).
 </t>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 février 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 février 2012) :
 Orthosiphon adenocaulis A.J.Paton &amp; Hedge, (1998).
 Orthosiphon allenii (C.H.Wright) Codd, (1964).
 Orthosiphon argenteus A.J.Paton &amp; Hedge, (1998).
@@ -624,9 +640,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 février 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 février 2012) :
 Orthosiphon adornatus Briq., (1894) = Syncolostemon welwitschii (Rolfe) D.F.Otieno, (2006).
 Orthosiphon adornatus var. oblongifolius Briq., (1894) = Syncolostemon welwitschii (Rolfe) D.F.Otieno, (2006).
 Orthosiphon adscendens Benth. ex Sweet, (1830) = Ocimum filamentosum Forssk., (1775).
